--- a/simulation_data/two_step_algorithm/2s_error_level_5_percent_water_1.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_5_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>94.19365306321026</v>
+        <v>93.94138314260096</v>
       </c>
       <c r="D2" t="n">
-        <v>5.857461695350669</v>
+        <v>6.711553535817784</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.27217694115696</v>
+        <v>92.0289199076731</v>
       </c>
       <c r="D3" t="n">
-        <v>6.115910406419697</v>
+        <v>5.202171649402618</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>92.0953974382102</v>
+        <v>92.03783549738459</v>
       </c>
       <c r="D4" t="n">
-        <v>6.520652599417629</v>
+        <v>6.19267127626514</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.58540239344462</v>
+        <v>90.54527947690752</v>
       </c>
       <c r="D5" t="n">
-        <v>5.378233446287909</v>
+        <v>5.586218141818994</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.95869942050005</v>
+        <v>89.35658088854908</v>
       </c>
       <c r="D6" t="n">
-        <v>6.505520677139081</v>
+        <v>6.127935305688413</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.25277625401344</v>
+        <v>88.61295640116437</v>
       </c>
       <c r="D7" t="n">
-        <v>5.759419795741535</v>
+        <v>5.737464025312592</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.46632075504543</v>
+        <v>85.72266284163021</v>
       </c>
       <c r="D8" t="n">
-        <v>6.028983945905624</v>
+        <v>5.837850652748377</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.86000175477739</v>
+        <v>85.77793582579412</v>
       </c>
       <c r="D9" t="n">
-        <v>6.538832658700832</v>
+        <v>5.600050216274036</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.28531254310818</v>
+        <v>83.48787984919851</v>
       </c>
       <c r="D10" t="n">
-        <v>6.251306565930054</v>
+        <v>5.782805891512592</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>84.12085230294005</v>
+        <v>83.57781973855201</v>
       </c>
       <c r="D11" t="n">
-        <v>5.996900119386218</v>
+        <v>4.948534057755171</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.24472866405372</v>
+        <v>82.10164780063114</v>
       </c>
       <c r="D12" t="n">
-        <v>6.119712907917745</v>
+        <v>5.999084007879045</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.07941263506582</v>
+        <v>81.31921138693019</v>
       </c>
       <c r="D13" t="n">
-        <v>6.508736732825269</v>
+        <v>6.291986010960137</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.82262081523859</v>
+        <v>80.67541805827187</v>
       </c>
       <c r="D14" t="n">
-        <v>5.73647473226794</v>
+        <v>5.992317889123957</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.16624554402007</v>
+        <v>79.57083610322421</v>
       </c>
       <c r="D15" t="n">
-        <v>5.970076157878988</v>
+        <v>6.372898954484136</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.51878987303108</v>
+        <v>78.16425094871947</v>
       </c>
       <c r="D16" t="n">
-        <v>6.283112029901891</v>
+        <v>5.597348365829685</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.64061066944515</v>
+        <v>76.68660059106632</v>
       </c>
       <c r="D17" t="n">
-        <v>6.047173939937837</v>
+        <v>5.478978541263342</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>77.01617247034322</v>
+        <v>77.0230770395731</v>
       </c>
       <c r="D18" t="n">
-        <v>5.309177706810872</v>
+        <v>5.099974487096958</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.49260508090353</v>
+        <v>74.21198398474084</v>
       </c>
       <c r="D19" t="n">
-        <v>5.85688152738828</v>
+        <v>5.886979712931623</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.48389221603158</v>
+        <v>74.15056852338219</v>
       </c>
       <c r="D20" t="n">
-        <v>6.111441862800179</v>
+        <v>5.639956075598271</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.90456725495439</v>
+        <v>72.94792946827639</v>
       </c>
       <c r="D21" t="n">
-        <v>5.465860763292944</v>
+        <v>5.687349130953659</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>72.62629442695949</v>
+        <v>72.43434825094396</v>
       </c>
       <c r="D22" t="n">
-        <v>7.042786838795994</v>
+        <v>5.334557477874493</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.17029934111352</v>
+        <v>71.15508666091439</v>
       </c>
       <c r="D23" t="n">
-        <v>6.143959305848741</v>
+        <v>5.861856410188911</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.08247651525022</v>
+        <v>69.95854314606684</v>
       </c>
       <c r="D24" t="n">
-        <v>6.1231947029948</v>
+        <v>5.269856351093995</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>69.59837407190143</v>
+        <v>68.25669286587504</v>
       </c>
       <c r="D25" t="n">
-        <v>5.99520098576347</v>
+        <v>4.844442994845618</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.82378290038353</v>
+        <v>67.53617772933538</v>
       </c>
       <c r="D26" t="n">
-        <v>5.675126023564536</v>
+        <v>5.622171684918102</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.80320441944343</v>
+        <v>66.31844711139135</v>
       </c>
       <c r="D27" t="n">
-        <v>6.122110410642017</v>
+        <v>5.879026904868435</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.53823369444294</v>
+        <v>65.80687759196363</v>
       </c>
       <c r="D28" t="n">
-        <v>5.311447335004222</v>
+        <v>6.022387842465515</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.57777129628144</v>
+        <v>64.86593629973564</v>
       </c>
       <c r="D29" t="n">
-        <v>5.09852402958925</v>
+        <v>5.825437254532785</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.34880903368765</v>
+        <v>61.84544427564876</v>
       </c>
       <c r="D30" t="n">
-        <v>5.358720979469879</v>
+        <v>4.816887947395164</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.93083929623524</v>
+        <v>62.22982136816592</v>
       </c>
       <c r="D31" t="n">
-        <v>5.484311028436113</v>
+        <v>6.108279984850933</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.10645730036345</v>
+        <v>60.66621841145781</v>
       </c>
       <c r="D32" t="n">
-        <v>5.867080197542916</v>
+        <v>6.081523405624776</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.83300678084301</v>
+        <v>59.97025396788256</v>
       </c>
       <c r="D33" t="n">
-        <v>5.539929753433034</v>
+        <v>6.004971833872065</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.8391641333867</v>
+        <v>59.59349212666024</v>
       </c>
       <c r="D34" t="n">
-        <v>5.711680054021261</v>
+        <v>5.237612753191717</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.69510620383685</v>
+        <v>58.19424511404567</v>
       </c>
       <c r="D35" t="n">
-        <v>5.423743228137435</v>
+        <v>5.487529689372414</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.58691212810173</v>
+        <v>56.42823750824444</v>
       </c>
       <c r="D36" t="n">
-        <v>5.411376726897569</v>
+        <v>5.17748126457161</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.08160890432404</v>
+        <v>55.85852950540567</v>
       </c>
       <c r="D37" t="n">
-        <v>6.196913949394462</v>
+        <v>5.548282037510179</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>56.90858230206899</v>
+        <v>54.48256546408795</v>
       </c>
       <c r="D38" t="n">
-        <v>5.800507138896468</v>
+        <v>6.185086890373007</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.67731669950714</v>
+        <v>52.73711298093957</v>
       </c>
       <c r="D39" t="n">
-        <v>6.316127811850333</v>
+        <v>5.544899332050332</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.95172697494875</v>
+        <v>51.95536010573166</v>
       </c>
       <c r="D40" t="n">
-        <v>5.409346831796439</v>
+        <v>5.775601312917968</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.63261362346313</v>
+        <v>51.51452427604856</v>
       </c>
       <c r="D41" t="n">
-        <v>5.282550337623981</v>
+        <v>5.510809559787603</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.18056458719931</v>
+        <v>50.63674887301117</v>
       </c>
       <c r="D42" t="n">
-        <v>5.879836395986617</v>
+        <v>5.572154823362679</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.5710682970128</v>
+        <v>49.42735471009187</v>
       </c>
       <c r="D43" t="n">
-        <v>5.632757390449561</v>
+        <v>4.888938863218613</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.30590919155459</v>
+        <v>49.08721230526648</v>
       </c>
       <c r="D44" t="n">
-        <v>5.829638532973454</v>
+        <v>5.53698423025024</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.51817072328533</v>
+        <v>46.96387830625378</v>
       </c>
       <c r="D45" t="n">
-        <v>5.106165058771922</v>
+        <v>5.677354823981299</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.95446223749109</v>
+        <v>46.03622220816803</v>
       </c>
       <c r="D46" t="n">
-        <v>5.989445192560927</v>
+        <v>5.647546346052106</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.01833526994026</v>
+        <v>45.18544152498912</v>
       </c>
       <c r="D47" t="n">
-        <v>6.218793683060232</v>
+        <v>5.416432114055794</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.71040363114534</v>
+        <v>44.79765179691594</v>
       </c>
       <c r="D48" t="n">
-        <v>5.495620770289422</v>
+        <v>5.577914770093892</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.89698159347465</v>
+        <v>43.25523505203081</v>
       </c>
       <c r="D49" t="n">
-        <v>5.439022787533998</v>
+        <v>5.216485389821405</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.94118541719542</v>
+        <v>41.67589313583248</v>
       </c>
       <c r="D50" t="n">
-        <v>5.94704947580918</v>
+        <v>5.668224134866431</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.05361339167542</v>
+        <v>41.57873050262877</v>
       </c>
       <c r="D51" t="n">
-        <v>6.063753038409449</v>
+        <v>5.673029934100942</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.14591395116095</v>
+        <v>40.18256282374397</v>
       </c>
       <c r="D52" t="n">
-        <v>5.679233467281</v>
+        <v>6.183310020100372</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.4438715815845</v>
+        <v>39.15910888739772</v>
       </c>
       <c r="D53" t="n">
-        <v>5.41015320530125</v>
+        <v>5.486651455557756</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.29237138374324</v>
+        <v>37.97251853518533</v>
       </c>
       <c r="D54" t="n">
-        <v>5.430194747233308</v>
+        <v>5.625154547193131</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.2504765374859</v>
+        <v>36.91759911881406</v>
       </c>
       <c r="D55" t="n">
-        <v>5.460118093500256</v>
+        <v>5.43687318563498</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.24299841389839</v>
+        <v>36.38892331431063</v>
       </c>
       <c r="D56" t="n">
-        <v>5.43070645332195</v>
+        <v>5.019376261227942</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.7931649619956</v>
+        <v>35.4268249739784</v>
       </c>
       <c r="D57" t="n">
-        <v>5.81622430963959</v>
+        <v>6.327044930700988</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.5992086264996</v>
+        <v>33.57455328206581</v>
       </c>
       <c r="D58" t="n">
-        <v>6.002869657671135</v>
+        <v>4.758072226442166</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.12273329308177</v>
+        <v>33.31797004071576</v>
       </c>
       <c r="D59" t="n">
-        <v>5.891600207455044</v>
+        <v>5.373237843338059</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.64093644988215</v>
+        <v>31.87170433728904</v>
       </c>
       <c r="D60" t="n">
-        <v>6.29388299454707</v>
+        <v>5.660084465545561</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.70965850202161</v>
+        <v>31.61092985443323</v>
       </c>
       <c r="D61" t="n">
-        <v>5.800000685957211</v>
+        <v>5.84647092228847</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.93486320573557</v>
+        <v>29.82808132350295</v>
       </c>
       <c r="D62" t="n">
-        <v>5.69284033366344</v>
+        <v>5.49534734507333</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.02173375259739</v>
+        <v>28.1972973726252</v>
       </c>
       <c r="D63" t="n">
-        <v>6.128625994463392</v>
+        <v>6.077156405625245</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.24072433336028</v>
+        <v>27.46517793028381</v>
       </c>
       <c r="D64" t="n">
-        <v>5.696827920804991</v>
+        <v>6.071269368403391</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.36520983902632</v>
+        <v>26.73690107231745</v>
       </c>
       <c r="D65" t="n">
-        <v>5.694096647404841</v>
+        <v>5.471678583342289</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.31624450050614</v>
+        <v>26.84858176971781</v>
       </c>
       <c r="D66" t="n">
-        <v>5.24962519052576</v>
+        <v>6.089086660749642</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.95733678315545</v>
+        <v>24.7215542577522</v>
       </c>
       <c r="D67" t="n">
-        <v>5.911791306540874</v>
+        <v>5.640326756116885</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.10936968261474</v>
+        <v>24.91784137312798</v>
       </c>
       <c r="D68" t="n">
-        <v>4.395852869920395</v>
+        <v>6.059465229803052</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.48911675659799</v>
+        <v>23.30428616804275</v>
       </c>
       <c r="D69" t="n">
-        <v>5.714497272455382</v>
+        <v>5.492401990812533</v>
       </c>
     </row>
   </sheetData>
